--- a/biology/Zoologie/Holothuria_(Metriatyla)/Holothuria_(Metriatyla).xlsx
+++ b/biology/Zoologie/Holothuria_(Metriatyla)/Holothuria_(Metriatyla).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Holothuria (Metriatyla) est un sous-genre de concombres de mer de la famille des Holothuriidae. 
 </t>
@@ -511,7 +523,9 @@
           <t>Description et caractéristiques</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Ce sont des holothuries tropicales, présentes dans les océans Indien et Pacifique. La plupart des espèces sont de taille moyenne à grosse, au tégument épais, hérissées de petites papilles coniques plus ou moins prononcées. Les tentacules buccaux sont  protégés par un anneau de longues papilles légèrement dures. Elles n'ont généralement pas de tubes de Cuvier fonctionnels. 
 </t>
@@ -542,10 +556,12 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Historiquement, ce groupe fut proposé par Rowe en tant que genre à part entière, mais les données scientifiques récentes l'ont placé au rang de sous-genre du vaste genre Holothuria[1]. 
-Selon World Register of Marine Species                               (24 octobre 2016)[1] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Historiquement, ce groupe fut proposé par Rowe en tant que genre à part entière, mais les données scientifiques récentes l'ont placé au rang de sous-genre du vaste genre Holothuria. 
+Selon World Register of Marine Species                               (24 octobre 2016) :
 Holothuria (Metriatyla) aculeata Semper, 1868 -- Philippines (connue seulement de l'holotype)
 Holothuria (Metriatyla) albiventer Semper, 1868 -- Indo-Pacifique tropical
 Holothuria (Metriatyla) brauni Helfer, 1912 -- Mer Rouge
